--- a/biology/Histoire de la zoologie et de la botanique/Chevall/Chevall..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Chevall/Chevall..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>François Fulgis Chevallier (1796-1840) est un médecin et botaniste français.
 Il obtient son titre de docteur en médecine le 26 mai 1821 avec une thèse intitulée Dissertation sur les ciguës indigènes, considérées comme poisons et comme médicaments. Il est également l'auteur de :
